--- a/UniApplikation/OutputFiles/WPM7.xlsx
+++ b/UniApplikation/OutputFiles/WPM7.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Platznummer</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Gernert</t>
+  </si>
+  <si>
+    <t>Gruschka</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,6 +386,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UniApplikation/OutputFiles/WPM7.xlsx
+++ b/UniApplikation/OutputFiles/WPM7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5040" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Platznummer</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Althaus</t>
-  </si>
-  <si>
-    <t>Gernert</t>
   </si>
   <si>
     <t>Gruschka</t>
@@ -356,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,14 +383,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UniApplikation/OutputFiles/WPM7.xlsx
+++ b/UniApplikation/OutputFiles/WPM7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5040" windowHeight="10245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Platznummer</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Althaus</t>
+  </si>
+  <si>
+    <t>Gernert</t>
   </si>
   <si>
     <t>Gruschka</t>
@@ -353,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,6 +386,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
